--- a/Result/check1/2025-03-31.xlsx
+++ b/Result/check1/2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>297</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>55746</t>
+          <t>86914</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.97</t>
+          <t>33.56</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>53.92</t>
+          <t>53.24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>-13.35</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>-7.94</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>35.22</t>
+          <t>30.12</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>818</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-4.07</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>-4.43</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>220.83</t>
+          <t>205.0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>77.78</t>
+          <t>66.63</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>8183</t>
+          <t>7596</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>8126</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-7.65</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>50.02</t>
+          <t>43.07</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>10851</t>
+          <t>9776</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>鄉林恆美94.01%、鄉林玉川4.64%、租金收入1.35% (2023年)</t>
+          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>-9.4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>712.348</t>
+          <t>29233.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>-18.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>39.65</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,57 +1701,57 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>3914</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>0.34</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,17 +1761,17 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>98.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1781,92 +1781,92 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>26863096.0</t>
+          <t>-101119.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>誠研</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28.44</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>16.57%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-21.63%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>98.5</t>
+          <t>60.58</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>印表機及週邊耗材96.73%、其他3.27% (2023年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>誠研-電腦及週邊設備業-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-9.4</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29233.0</t>
+          <t>1191.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,202 +1913,202 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-18.92</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>18.10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-3.83</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-1.85</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>39.65</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>5498</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-101119.0</t>
+          <t>-14751733.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>太空梭</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>26.11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>4.01%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>-3.02%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>69.18</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>1815</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>安全監視產品81.64%、工業應用產品10.77%、其他5.88%、健康醫療產品1.24%、健康及保健產品0.48% (2023年)</t>
+          <t>絞銅線91.13%、C產品線8.83%、C連接組裝產品0.04% (2023年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>太空梭-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 電腦及週邊設備 - 連接線</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1191.28</t>
+          <t>4765.567</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>18.10</t>
+          <t>54.38</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>456.5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>-7.67</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>120</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2442</t>
+          <t>7488</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-4.39</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2265,32 +2265,32 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-14751733.0</t>
+          <t>2256225140.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>太空梭</t>
+          <t>漢唐</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2300,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>67.04</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>4.01%</t>
+          <t>20.67%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>-3.02%</t>
+          <t>16.86%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2073</t>
+          <t>80808</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>絞銅線91.13%、C產品線8.83%、C連接組裝產品0.04% (2023年)</t>
+          <t>工程99.46%、商品銷售0.30%、勞務及設計0.24% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>太空梭-電子零組件業-上市</t>
+          <t>漢唐-其他電子業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>78.08</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 連接線</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2438</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-11.08</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>300.641</t>
+          <t>13510.153</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>16.34</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>33.4</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,77 +2427,77 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-10.41</t>
+          <t>-10.69</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>12072</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-11.73</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>166.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2507,32 +2507,32 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>61145249.0</t>
+          <t>744220850.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>翔耀</t>
+          <t>正新</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2542,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>37.69%</t>
+          <t>20.89%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2.24%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>84.99</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>146998</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>玻璃減薄拋光等加工74.43%、其他25.57% (2023年)</t>
+          <t>輻射層汽車外胎42.77%、機車外胎16.77%、輻射層卡車外胎14.81%、其他輪胎11.03%、自行車外胎10.95%、內胎3.50%、其他產品1.10%、其他0.90% (2023年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>翔耀-光電業-上市</t>
+          <t>正新-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>27.71</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 半導體 - 光罩** LED照明產業 - 燈具/應用</t>
+          <t>** 石化及塑橡膠 - 橡膠製品</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>2033</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4765.567</t>
+          <t>143.952</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,114 +2639,114 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>54.38</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-8.09</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-0.79</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-0.62</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>456.5</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2477</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-4.39</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2759,22 +2759,22 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2256225140.0</t>
+          <t>-1810261.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>漢唐</t>
+          <t>佳大</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>67.04</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>13.94</t>
+          <t>97.63</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>20.67%</t>
+          <t>12.26%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>16.86%</t>
+          <t>3.06%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>87193</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>工程99.46%、商品銷售0.30%、勞務及設計0.24% (2024年)</t>
+          <t>一般鋼線73.92%、鋼纜19.38%、鍍鋅線6.55%、其他0.15% (2023年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>漢唐-其他電子業-上市</t>
+          <t>佳大-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>78.08</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 鋼鐵 - 鋼線鋼纜</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>-4.81</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13510.153</t>
+          <t>4873.689</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>-6.06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>60.84</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>197.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,37 +2911,37 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-12.25</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>9857</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>-3.42</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2951,32 +2951,32 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -3001,22 +3001,22 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>744220850.0</t>
+          <t>919214261.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>正新</t>
+          <t>喬山</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>運動休閒</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>57.29</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21.01</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>20.89%</t>
+          <t>50.62%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>12.37%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>20.99</t>
+          <t>18.33</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>168229</t>
+          <t>53246</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>輻射層汽車外胎42.77%、機車外胎16.77%、輻射層卡車外胎14.81%、其他輪胎11.03%、自行車外胎10.95%、內胎3.50%、其他產品1.10%、其他0.90% (2023年)</t>
+          <t>健身器材,心肺復甦健身機,重96.38%、其他3.62% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>正新-橡膠工業-上市</t>
+          <t>喬山-運動休閒-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>27.71</t>
+          <t>39.69</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 橡膠製品</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-4.81</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4873.689</t>
+          <t>14182.728</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,142 +3123,142 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-6.06</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>60.84</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>46.7</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-6.5</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>15685</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>197.0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>3846</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>11.31</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>919214261.0</t>
+          <t>-332495481.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>喬山</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3268,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>57.29</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>50.62%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>12.37%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>22.31</t>
+          <t>17.98</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>65685</t>
+          <t>155517</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>健身器材,心肺復甦健身機,重96.38%、其他3.62% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>喬山-運動休閒-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>39.69</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3332,248 +3332,6 @@
         </is>
       </c>
       <c r="AV12" t="inlineStr">
-        <is>
-          <t>** 其他 - 其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>14182.728</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>27.76</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>46.7</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>12640</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-0.32</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>-332495481.0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>17.30%</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>15.00%</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>19.67</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>166511</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>

--- a/Result/check1/2025-03-31.xlsx
+++ b/Result/check1/2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AV13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>86914</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>33.56</t>
+          <t>35.44</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>30.1</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>-10.62</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1883.0</t>
+          <t>150.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>-5.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>53.24</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>35.65</t>
+          <t>153.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,72 +975,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-13.35</t>
+          <t>-23.79</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>604</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-7.94</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>-3.10</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,27 +1055,27 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>67126.0</t>
+          <t>-38451711.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>全譜</t>
+          <t>尼得科超眾</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1085,62 +1085,62 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>25.31</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>17.20%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>-107.88%</t>
+          <t>1.58%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.12</t>
+          <t>79.96</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>10707</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>生物醫學產品50.74%、底片型掃描器34.45%、其他7.69%、建材及工程3.78%、智能工程3.34% (2023年)</t>
+          <t>散熱模組75.24%、散熱片18.42%、其他6.34% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>全譜-電腦及週邊設備業-上櫃</t>
+          <t>尼得科超眾-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>69.47</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
+          <t>** 電腦及週邊設備 - 散熱片、風扇馬達、散熱模組</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-4.07</t>
+          <t>-6.67</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>635</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-4.43</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>205.0</t>
+          <t>200.0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,17 +1357,17 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>66.63</t>
+          <t>65.31</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7596</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>殯葬服務78.40%、租賃15.67%、文創商品5.93% (2023年)</t>
+          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-10.89</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3116</t>
+          <t>935</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>43.07</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>9776</t>
+          <t>9874</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>4741</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-9.4</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29233.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-18.92</t>
+          <t>-3.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>39.65</t>
+          <t>34.65</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>16.53</t>
+          <t>-34.82</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3914</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>-7.62</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1781,32 +1781,32 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-101119.0</t>
+          <t>-829.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>泓瀚</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>化學工業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1816,57 +1816,57 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>28.44</t>
+          <t>12.91</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>33.69%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>10.97%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>60.58</t>
+          <t>30.85</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1331</t>
+          <t>844</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>溶劑性墨水72.13%、UV墨水20.68%、其他1.92%、水性墨水1.74%、耗材1.13%、噴繪機1.00%、色漿0.75%、機構件0.41%、油性墨水0.24% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>泓瀚-化學工業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>化學工業右下</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 石化及塑橡膠 - 顏染料</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>-9.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1191.28</t>
+          <t>29233.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-18.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>18.10</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>39.65</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-3.83</t>
+          <t>15.64</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>2224</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1978,37 +1978,37 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>98.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2023,92 +2023,92 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-14751733.0</t>
+          <t>-101119.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>太空梭</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>4.01%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-3.02%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>60.37</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>絞銅線91.13%、C產品線8.83%、C連接組裝產品0.04% (2023年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>太空梭-電子零組件業-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 連接線</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4765.567</t>
+          <t>1191.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,142 +2155,142 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>54.38</t>
+          <t>18.10</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-4.63</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>456.5</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-7.67</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>7488</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>11.74</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-4.39</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2256225140.0</t>
+          <t>-14751733.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>漢唐</t>
+          <t>太空梭</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2300,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>67.04</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>20.67%</t>
+          <t>4.01%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>16.86%</t>
+          <t>-3.02%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>80808</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>工程99.46%、商品銷售0.30%、勞務及設計0.24% (2024年)</t>
+          <t>銅材料91.74%、C產品線8.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>漢唐-其他電子業-上市</t>
+          <t>太空梭-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>78.08</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 電腦及週邊設備 - 連接線</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13510.153</t>
+          <t>4765.567</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>54.38</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>456.5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,72 +2427,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-10.69</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>92</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>12072</t>
+          <t>3523</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-4.39</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,22 +2517,22 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>744220850.0</t>
+          <t>2256225140.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>正新</t>
+          <t>漢唐</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2542,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>67.04</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>20.89%</t>
+          <t>20.67%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>16.86%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>18.65</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>146998</t>
+          <t>87574</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>輻射層汽車外胎42.77%、機車外胎16.77%、輻射層卡車外胎14.81%、其他輪胎11.03%、自行車外胎10.95%、內胎3.50%、其他產品1.10%、其他0.90% (2023年)</t>
+          <t>工程99.46%、商品銷售0.30%、勞務及設計0.24% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>正新-橡膠工業-上市</t>
+          <t>漢唐-其他電子業-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>27.71</t>
+          <t>78.08</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 橡膠製品</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>143.952</t>
+          <t>13510.153</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>16.34</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20.05</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,32 +2669,32 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-8.09</t>
+          <t>-2.76</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>222</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>8791</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2704,37 +2704,37 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,22 +2759,22 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-1810261.0</t>
+          <t>744220850.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>佳大</t>
+          <t>正新</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>97.63</t>
+          <t>19.78</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>12.26%</t>
+          <t>20.89%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>3.06%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>19.16</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>158343</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>一般鋼線73.92%、鋼纜19.38%、鍍鋅線6.55%、其他0.15% (2023年)</t>
+          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>佳大-鋼鐵工業-上市</t>
+          <t>正新-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>12.93</t>
+          <t>27.71</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 鋼鐵 - 鋼線鋼纜</t>
+          <t>** 石化及塑橡膠 - 橡膠製品</t>
         </is>
       </c>
     </row>
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-12.25</t>
+          <t>-13.54</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>654</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>21.66</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>18.33</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>53246</t>
+          <t>52639</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3103,235 +3103,477 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1472</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>97.825</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>99.9</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-5.05</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>4198968.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>三洋實業</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>9.88%</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>5.17%</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>43.3</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>4992</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>工程100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>三洋實業-建材營造-上市</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>建材營造右上</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>38.67</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 結構工程、機電工程、營造業、工程承攬</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>1102</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>-0.65</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>14182.728</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.76</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>27.76</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>46.7</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-6.5</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>15685</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-3.43</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>10224</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-3.32</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>1.06</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>33.0</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>26.0</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>-332495481.0</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>6.01</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
         <is>
           <t>17.30%</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>15.00%</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>17.98</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>155517</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>18.6</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>51.13</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV12" t="inlineStr">
+      <c r="AV13" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>

--- a/Result/check1/2025-03-31.xlsx
+++ b/Result/check1/2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>31341</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-5.45</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.44</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.03</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-10.62</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>150.22</t>
+          <t>1883.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-5.21</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>53.24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>153.5</t>
+          <t>35.65</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,72 +975,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-23.79</t>
+          <t>14.71</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-3.10</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,27 +1055,27 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-38451711.0</t>
+          <t>67126.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>尼得科超眾</t>
+          <t>全譜</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1085,62 +1085,62 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>25.31</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>17.20%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1.58%</t>
+          <t>-107.88%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>79.96</t>
+          <t>30.93</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>10707</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>散熱模組75.24%、散熱片18.42%、其他6.34% (2024年)</t>
+          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>尼得科超眾-電腦及週邊設備業-上市</t>
+          <t>全譜-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>69.47</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 散熱片、風扇馬達、散熱模組</t>
+          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-6.67</t>
+          <t>-18.52</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>681</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-8.33</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>200.0</t>
+          <t>180.0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>6670</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-10.89</t>
+          <t>-12.45</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>1440</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>9874</t>
+          <t>9737</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>建材營造右下</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-34.82</t>
+          <t>-48.71</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>2928</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-7.62</t>
+          <t>-6.86</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>12.91</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>30.85</t>
+          <t>30.83</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>765</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-9.4</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29233.0</t>
+          <t>712.348</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,202 +1913,202 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-18.92</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>58.29</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>19.45</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-34.6</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>39.65</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>15.64</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2224</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-101119.0</t>
+          <t>26863096.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>誠研</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>16.57%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>-21.63%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>936</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>耗材80.55%、機器17.80%、零組件及其他1.65% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>誠研-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>-9.4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1191.28</t>
+          <t>29233.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-18.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>18.10</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>39.65</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,32 +2185,32 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-4.63</t>
+          <t>23.31</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>7287</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2220,37 +2220,37 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>98.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2265,92 +2265,92 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-14751733.0</t>
+          <t>-101119.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>太空梭</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>4.01%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>-3.02%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1449</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>銅材料91.74%、C產品線8.26% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>太空梭-電子零組件業-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 連接線</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-2.47</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>67</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>2904</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>13.57</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>34.73</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>87574</t>
+          <t>84906</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-2.76</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>8791</t>
+          <t>9890</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>19.78</t>
+          <t>20.24</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>19.16</t>
+          <t>19.41</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>158343</t>
+          <t>162071</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-13.54</t>
+          <t>-9.75</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>2938</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2936,14 +2936,14 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S11" t="inlineStr">
         <is>
           <t>-0.01</t>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21.66</t>
+          <t>22.41</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.48</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>52639</t>
+          <t>54459</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>97.825</t>
+          <t>14182.728</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,72 +3153,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-5.05</t>
+          <t>-3.2</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>8832</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -3243,22 +3243,22 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>4198968.0</t>
+          <t>-332495481.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>三洋實業</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3268,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>12.91</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>9.88%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>5.17%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>18.29</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>4992</t>
+          <t>160482</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>工程100.00% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>三洋實業-建材營造-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>38.67</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3332,248 +3332,6 @@
         </is>
       </c>
       <c r="AV12" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 結構工程、機電工程、營造業、工程承攬</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>14182.728</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>27.76</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>46.7</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-3.43</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>10224</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-3.32</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>-332495481.0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>12.44</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>17.30%</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>15.00%</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>18.6</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>160127</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>

--- a/Result/check1/2025-03-31.xlsx
+++ b/Result/check1/2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>105</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>31341</t>
+          <t>24720</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-5.45</t>
+          <t>-10.38</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.03</t>
+          <t>30.42</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>3566</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>14.71</t>
+          <t>22.42</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>773</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.93</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,167 +1167,167 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6199</t>
+          <t>5531</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3106.646</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-15.46</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-3.61</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1670.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>16.16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-18.52</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>681</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-8.33</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-1.11</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>273.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>69.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>285328.0</t>
+          <t>10788516.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>天品</t>
+          <t>鄉林</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1337,52 +1337,52 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>180.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>80.64%</t>
+          <t>25.68%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-2.58%</t>
+          <t>15.34%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>43.94</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6670</t>
+          <t>9483</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
+          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>天品-其他-上櫃</t>
+          <t>鄉林-建材營造-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>建材營造右下</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>4741</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3106.646</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>-3.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>34.65</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-12.45</t>
+          <t>-40.28</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1469,62 +1469,62 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>815</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,92 +1539,92 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>10788516.0</t>
+          <t>-829.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>鄉林</t>
+          <t>泓瀚</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>化學工業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>25.68%</t>
+          <t>33.69%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>15.34%</t>
+          <t>10.97%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>31.28</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>9737</t>
+          <t>811</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
+          <t>溶劑性墨水72.13%、UV墨水20.68%、其他1.92%、水性墨水1.74%、耗材1.13%、噴繪機1.00%、色漿0.75%、機構件0.41%、油性墨水0.24% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>鄉林-建材營造-上市</t>
+          <t>泓瀚-化學工業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>建材營造右下</t>
+          <t>化學工業右下</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 石化及塑橡膠 - 顏染料</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-9.4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>29233.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-3.59</t>
+          <t>-18.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>34.65</t>
+          <t>39.65</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,112 +1701,112 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-48.71</t>
+          <t>30.19</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>57</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2928</t>
+          <t>7536</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-6.86</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-829.0</t>
+          <t>-101119.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>泓瀚</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>化學工業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1816,57 +1816,57 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>34.01</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>33.69%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>10.97%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>30.83</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>溶劑性墨水72.13%、UV墨水20.68%、其他1.92%、水性墨水1.74%、耗材1.13%、噴繪機1.00%、色漿0.75%、機構件0.41%、油性墨水0.24% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>泓瀚-化學工業-上櫃</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>化學工業右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>28.62</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 顏染料</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>712.348</t>
+          <t>1191.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>58.29</t>
+          <t>18.10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>13.55</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,77 +1943,77 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-34.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>566</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2023,32 +2023,32 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>26863096.0</t>
+          <t>-14751733.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>誠研</t>
+          <t>太空梭</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -2073,42 +2073,42 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>16.57%</t>
+          <t>4.01%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-21.63%</t>
+          <t>-3.02%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>耗材80.55%、機器17.80%、零組件及其他1.65% (2024年)</t>
+          <t>銅材料91.74%、C產品線8.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>誠研-電腦及週邊設備業-上市</t>
+          <t>太空梭-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
+          <t>** 電腦及週邊設備 - 連接線</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-9.4</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29233.0</t>
+          <t>4765.567</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-18.92</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>54.38</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>39.65</t>
+          <t>456.5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>23.31</t>
+          <t>-5.43</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>55</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7287</t>
+          <t>2298</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>-4.97</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>-4.39</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2265,92 +2265,92 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-101119.0</t>
+          <t>2256225140.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>漢唐</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>67.04</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>20.67%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>16.86%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>35.49</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1449</t>
+          <t>82524</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>工程99.46%、商品銷售0.30%、勞務及設計0.24% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>漢唐-其他電子業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>78.08</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4765.567</t>
+          <t>13510.153</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>54.38</t>
+          <t>16.34</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>456.5</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,72 +2427,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>-4.04</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2904</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>-3.42</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-4.39</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,22 +2517,22 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2256225140.0</t>
+          <t>744220850.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>漢唐</t>
+          <t>正新</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2542,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>67.04</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>13.57</t>
+          <t>19.53</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>20.67%</t>
+          <t>20.89%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>16.86%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>34.73</t>
+          <t>19.17</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>84906</t>
+          <t>156398</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>工程99.46%、商品銷售0.30%、勞務及設計0.24% (2024年)</t>
+          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>漢唐-其他電子業-上市</t>
+          <t>正新-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>78.08</t>
+          <t>27.71</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 石化及塑橡膠 - 橡膠製品</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>-4.81</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13510.153</t>
+          <t>4873.689</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>-6.06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>60.84</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>197.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,37 +2669,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>-10.99</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>9890</t>
+          <t>2068</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2709,32 +2709,32 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,22 +2759,22 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>744220850.0</t>
+          <t>919214261.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>正新</t>
+          <t>喬山</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>運動休閒</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>57.29</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.24</t>
+          <t>22.16</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>20.89%</t>
+          <t>50.62%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>12.37%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>19.41</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>162071</t>
+          <t>53852</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
+          <t>健身器材,心肺復甦健身機,重96.38%、其他3.62% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>正新-橡膠工業-上市</t>
+          <t>喬山-運動休閒-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>27.71</t>
+          <t>39.69</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 橡膠製品</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-4.81</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4873.689</t>
+          <t>97.825</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,142 +2881,142 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-6.06</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>60.84</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>99.9</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-3.31</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>197.0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-9.75</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2938</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>12.85</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>919214261.0</t>
+          <t>4198968.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>喬山</t>
+          <t>三洋實業</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>57.29</t>
+          <t>12.91</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>32.78</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>50.62%</t>
+          <t>9.88%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>12.37%</t>
+          <t>5.17%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>18.48</t>
+          <t>43.94</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>54459</t>
+          <t>5076</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>健身器材,心肺復甦健身機,重96.38%、其他3.62% (2024年)</t>
+          <t>工程100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>喬山-運動休閒-上市</t>
+          <t>三洋實業-建材營造-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>39.69</t>
+          <t>38.67</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,249 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14182.728</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>27.76</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>46.7</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-3.2</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>8832</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>-332495481.0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>12.47</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>17.30%</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>15.00%</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>18.29</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>160482</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr">
-        <is>
-          <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
+          <t>** 建材營造 - 結構工程、機電工程、營造業、工程承攬</t>
         </is>
       </c>
     </row>
